--- a/tool/boru.UI-toolBox/jsx/文档.xlsx
+++ b/tool/boru.UI-toolBox/jsx/文档.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13065"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="PSDtoEUI" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>脚本名称</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">图片名称后加格式 配和ps自带 </t>
     </r>
     <r>
@@ -56,6 +62,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>生成&gt;&gt;图像资源</t>
@@ -64,6 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> 功能</t>
@@ -77,12 +85,19 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">无需对图层名操作 </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>注意:字不要用</t>
@@ -92,6 +107,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>变形工具(Crtl+T)</t>
@@ -100,6 +116,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>放大缩小</t>
@@ -108,6 +125,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>会影响字号获取</t>
@@ -133,6 +151,9 @@
   </si>
   <si>
     <t>选中需要生成信息的图层(有组的不对组操作的不选择组)</t>
+  </si>
+  <si>
+    <t>G9Data:[10,10,88,88]</t>
   </si>
 </sst>
 </file>
@@ -140,12 +161,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,15 +191,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,33 +259,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -254,21 +298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -282,17 +312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,55 +329,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -378,6 +388,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -390,13 +448,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,157 +550,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,6 +654,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -664,21 +689,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -707,15 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -733,6 +734,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -746,152 +756,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -913,22 +923,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1062,6 +1069,140 @@
         <a:xfrm>
           <a:off x="1762125" y="2028825"/>
           <a:ext cx="2247900" cy="2713990"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>113665</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981075" y="6867525"/>
+          <a:ext cx="3247390" cy="1190625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4476750" y="7000875"/>
+          <a:ext cx="2533650" cy="990600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>362585</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76835</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419985" y="2134235"/>
+          <a:ext cx="3247390" cy="1190625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,10 +1507,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="G9:M19"/>
+  <dimension ref="G9:M38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1410,13 +1551,13 @@
       <c r="H14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="7:13">
       <c r="G15" s="4" t="s">
@@ -1425,13 +1566,13 @@
       <c r="H15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="7:13">
       <c r="G16" s="4" t="s">
@@ -1440,13 +1581,13 @@
       <c r="H16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="7:13">
       <c r="G17" s="4" t="s">
@@ -1455,13 +1596,13 @@
       <c r="H17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="7:13">
       <c r="G18" s="4" t="s">
@@ -1470,13 +1611,13 @@
       <c r="H18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="7:13">
       <c r="G19" s="6" t="s">
@@ -1485,11 +1626,16 @@
       <c r="H19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="12"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="11"/>
+    </row>
+    <row r="38" spans="9:9">
+      <c r="I38" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1513,7 +1659,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1521,6 +1667,7 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
